--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632220.223570934</v>
+        <v>2629968.143859726</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658581</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>93.35882079148007</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.543542378765033</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>164.6686649558538</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316083</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>20.95866062610972</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>105.6685336178173</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613046</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091506</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>142.9824281355624</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>184.3755225607032</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176339</v>
       </c>
       <c r="E13" t="n">
-        <v>146.053516066753</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217645</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.40444476188276</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1340.24392931281</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>954.4556767145652</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4437,16 +4437,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.51949026613</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>601.8341834779424</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>453.9210898955492</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>307.0311423976389</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4510,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>916.2975690719577</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>724.611684898784</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>502.84506946831</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>502.84506946831</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363905</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3048.983168332374</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3048.983168332374</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2717.920280988803</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.151625718689</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1991.685867457609</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.546535481797</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>899.7166415493873</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>610.6137746750309</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218343</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308158</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760996</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162752</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>651.398518373144</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215812</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450122</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145383</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145383</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>252.7500180086514</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>252.7500180086514</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>252.7500180086514</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5027,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5051,31 +5051,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D13" t="n">
-        <v>632.3401009508116</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,25 +5413,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,16 +7260,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.586274966449</v>
       </c>
       <c r="E13" t="n">
-        <v>0.38044657981618</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.7605018907548</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038748</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038609</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520048</v>
@@ -26332,28 +26332,28 @@
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405253</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>14826.69604186742</v>
       </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
-      </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,7 +26451,7 @@
         <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016117</v>
+        <v>-873442.0145016118</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.731225981</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.7312259807</v>
       </c>
       <c r="E6" t="n">
-        <v>204355.5920788754</v>
+        <v>204320.8541534397</v>
       </c>
       <c r="F6" t="n">
-        <v>529768.0538862303</v>
+        <v>529733.3159607952</v>
       </c>
       <c r="G6" t="n">
-        <v>529768.0538862303</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="H6" t="n">
-        <v>529768.0538862306</v>
+        <v>529733.3159607949</v>
       </c>
       <c r="I6" t="n">
-        <v>529768.0538862303</v>
+        <v>529733.3159607945</v>
       </c>
       <c r="J6" t="n">
-        <v>312236.8514889528</v>
+        <v>312202.1135635171</v>
       </c>
       <c r="K6" t="n">
-        <v>529768.0538862307</v>
+        <v>529733.3159607947</v>
       </c>
       <c r="L6" t="n">
-        <v>529768.0538862305</v>
+        <v>529733.3159607949</v>
       </c>
       <c r="M6" t="n">
-        <v>444713.0259507185</v>
+        <v>444678.288025283</v>
       </c>
       <c r="N6" t="n">
-        <v>529768.0538862306</v>
+        <v>529733.3159607949</v>
       </c>
       <c r="O6" t="n">
-        <v>529768.0538862306</v>
+        <v>529733.315960795</v>
       </c>
       <c r="P6" t="n">
-        <v>529768.0538862303</v>
+        <v>529733.3159607948</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003781</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>72.66698746754815</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>84.38861029128229</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.24930518376632</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244453</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>198.5902886500595</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>146.4691097060107</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943046953</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>24.26439296306546</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>34.20913079139154</v>
       </c>
     </row>
     <row r="11">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-4.939277081144419e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29989,16 +29989,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.956561913878</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33980,7 +33980,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,10 +34372,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340039</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
